--- a/poc_pandas/data/DataOfExcel.xlsx
+++ b/poc_pandas/data/DataOfExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/844044a731edab48/开发2019_工作目录/DataAnalysis/poc_pandas/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvwenyi/Desktop/数据分析/DA202010/poc_pandas/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{65322F2B-37AE-444F-BA02-B474BC4A1D16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{25C5D890-853E-4D7C-9331-D1255D97CBF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2860BD79-A88D-6240-8102-B6F577259454}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="20520" windowHeight="15360" xr2:uid="{69AD7C82-CDF1-4110-932A-C6C3BB0DDE47}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{69AD7C82-CDF1-4110-932A-C6C3BB0DDE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1975,47 +1975,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
@@ -2031,47 +1990,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
@@ -2087,47 +2005,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="25"/>
@@ -2143,47 +2020,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="26"/>
@@ -2199,47 +2035,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
@@ -2255,47 +2050,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="28"/>
@@ -2311,47 +2065,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="29"/>
@@ -2367,47 +2080,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="30"/>
@@ -2423,47 +2095,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="31"/>
@@ -2479,47 +2110,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="32"/>
@@ -2535,47 +2125,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="33"/>
@@ -2591,47 +2140,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="34"/>
@@ -2647,47 +2155,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="35"/>
@@ -2703,47 +2170,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="36"/>
@@ -2759,47 +2185,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="37"/>
@@ -3733,47 +3118,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="72"/>
@@ -3789,47 +3133,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="73"/>
@@ -3845,47 +3148,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="74"/>
@@ -3901,47 +3163,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="75"/>
@@ -3957,47 +3178,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="76"/>
@@ -4013,47 +3193,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -8062,16 +7201,17 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="8.83203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8085,7 +7225,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8100,7 +7240,7 @@
         <v>女</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -8112,10 +7252,10 @@
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D39" ca="1" si="0">IF(RANDBETWEEN(0,1)=1,"男","女")</f>
-        <v>男</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>女</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8130,7 +7270,7 @@
         <v>女</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -8142,10 +7282,10 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -8157,10 +7297,10 @@
       </c>
       <c r="D6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -8175,7 +7315,7 @@
         <v>女</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -8187,10 +7327,10 @@
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>男</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>女</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -8202,10 +7342,10 @@
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>男</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>女</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -8220,7 +7360,7 @@
         <v>男</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -8232,10 +7372,10 @@
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>男</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>女</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -8247,10 +7387,10 @@
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>男</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>女</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -8262,10 +7402,10 @@
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>男</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>女</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -8280,7 +7420,7 @@
         <v>男</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -8292,10 +7432,10 @@
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -8307,10 +7447,10 @@
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -8325,7 +7465,7 @@
         <v>男</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -8340,7 +7480,7 @@
         <v>女</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -8355,7 +7495,7 @@
         <v>男</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -8367,10 +7507,10 @@
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -8382,10 +7522,10 @@
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -8400,7 +7540,7 @@
         <v>男</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -8415,7 +7555,7 @@
         <v>女</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -8430,7 +7570,7 @@
         <v>女</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -8445,7 +7585,7 @@
         <v>女</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -8460,7 +7600,7 @@
         <v>男</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -8472,10 +7612,10 @@
       </c>
       <c r="D27" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -8487,10 +7627,10 @@
       </c>
       <c r="D28" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -8505,7 +7645,7 @@
         <v>男</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -8517,10 +7657,10 @@
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -8535,7 +7675,7 @@
         <v>男</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -8550,7 +7690,7 @@
         <v>男</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -8562,10 +7702,10 @@
       </c>
       <c r="D33" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -8580,7 +7720,7 @@
         <v>女</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -8592,10 +7732,10 @@
       </c>
       <c r="D35" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -8607,10 +7747,10 @@
       </c>
       <c r="D36" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -8622,10 +7762,10 @@
       </c>
       <c r="D37" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -8637,10 +7777,10 @@
       </c>
       <c r="D38" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>女</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>男</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -8652,7 +7792,7 @@
       </c>
       <c r="D39" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>男</v>
+        <v>女</v>
       </c>
     </row>
   </sheetData>
@@ -8671,16 +7811,16 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>369</v>
       </c>
@@ -8694,7 +7834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -8708,7 +7848,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -8722,7 +7862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -8736,7 +7876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -8750,7 +7890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -8764,7 +7904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -8778,7 +7918,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -8792,7 +7932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -8806,7 +7946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -8820,7 +7960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -8834,7 +7974,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -8848,7 +7988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -8862,7 +8002,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -8876,7 +8016,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -8890,7 +8030,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -8904,7 +8044,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="15" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -8918,7 +8058,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -8932,7 +8072,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -8946,7 +8086,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -8960,7 +8100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -8974,7 +8114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" customHeight="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -8988,7 +8128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -9002,7 +8142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -9016,7 +8156,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -9030,7 +8170,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9044,7 +8184,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" customHeight="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -9058,7 +8198,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -9072,7 +8212,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15" customHeight="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -9086,7 +8226,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -9100,7 +8240,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -9114,7 +8254,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -9128,7 +8268,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9142,7 +8282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9156,7 +8296,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9170,7 +8310,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -9184,7 +8324,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -9198,7 +8338,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -9212,7 +8352,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -9226,7 +8366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -9240,7 +8380,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -9254,7 +8394,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15" customHeight="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -9268,7 +8408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -9282,7 +8422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -9296,7 +8436,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -9310,7 +8450,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15" customHeight="1">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -9324,7 +8464,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15" customHeight="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -9338,7 +8478,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" customHeight="1">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -9352,7 +8492,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15" customHeight="1">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -9366,7 +8506,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15" customHeight="1">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -9380,7 +8520,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" customHeight="1">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -9394,7 +8534,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" customHeight="1">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -9408,7 +8548,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" customHeight="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -9422,7 +8562,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" customHeight="1">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -9436,7 +8576,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" customHeight="1">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -9450,7 +8590,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" customHeight="1">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -9464,7 +8604,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15" customHeight="1">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -9478,7 +8618,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15" customHeight="1">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -9492,7 +8632,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" customHeight="1">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -9506,7 +8646,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15" customHeight="1">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -9520,7 +8660,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" customHeight="1">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -9534,7 +8674,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" customHeight="1">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -9548,7 +8688,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15" customHeight="1">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -9562,7 +8702,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" customHeight="1">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -9576,7 +8716,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" customHeight="1">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -9590,7 +8730,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="15" customHeight="1">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -9604,7 +8744,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="15" customHeight="1">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -9618,7 +8758,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" customHeight="1">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -9632,7 +8772,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="15" customHeight="1">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -9646,7 +8786,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="15" customHeight="1">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -9660,7 +8800,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" customHeight="1">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -9674,7 +8814,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" customHeight="1">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -9688,7 +8828,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" customHeight="1">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -9702,7 +8842,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="15" customHeight="1">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -9716,7 +8856,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="15" customHeight="1">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -9730,7 +8870,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="15" customHeight="1">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -9744,7 +8884,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="15" customHeight="1">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -9758,7 +8898,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="15" customHeight="1">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -9772,7 +8912,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="15" customHeight="1">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -9786,7 +8926,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="15" customHeight="1">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -9800,7 +8940,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="15" customHeight="1">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -9814,7 +8954,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="15" customHeight="1">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -9828,7 +8968,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="15" customHeight="1">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -9842,7 +8982,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="15" customHeight="1">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -9856,7 +8996,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="15" customHeight="1">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -9870,7 +9010,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="15" customHeight="1">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -9884,7 +9024,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="15" customHeight="1">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -9898,7 +9038,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="15" customHeight="1">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -9912,7 +9052,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="15" customHeight="1">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -9926,7 +9066,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="15" customHeight="1">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -9940,7 +9080,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="15" customHeight="1">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -9954,7 +9094,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="15" customHeight="1">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -9968,7 +9108,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="15" customHeight="1">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -9982,7 +9122,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="15" customHeight="1">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -9996,7 +9136,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="15" customHeight="1">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -10010,7 +9150,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="15" customHeight="1">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -10024,7 +9164,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="15" customHeight="1">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -10038,7 +9178,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="15" customHeight="1">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -10052,7 +9192,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="15" customHeight="1">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -10066,7 +9206,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="15" customHeight="1">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -10080,7 +9220,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="15" customHeight="1">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -10094,7 +9234,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="15" customHeight="1">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -10108,7 +9248,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="15" customHeight="1">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -10122,7 +9262,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="15" customHeight="1">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -10136,7 +9276,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="15" customHeight="1">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -10150,7 +9290,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="15" customHeight="1">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -10164,7 +9304,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="15" customHeight="1">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -10178,7 +9318,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="15" customHeight="1">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -10192,7 +9332,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="15" customHeight="1">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -10220,21 +9360,21 @@
       <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="2"/>
     <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="26" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="76" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="78" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" ht="15" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>372</v>
       </c>
@@ -10245,17 +9385,17 @@
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" ht="15" customHeight="1">
       <c r="A2" s="6">
         <f ca="1">RANDBETWEEN(100000,999999)</f>
-        <v>433569</v>
+        <v>514387</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">RANDBETWEEN(30,50)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="9" t="s">
@@ -10333,17 +9473,17 @@
       <c r="BX2"/>
       <c r="BY2"/>
     </row>
-    <row r="3" spans="1:77" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77">
       <c r="A3" s="6">
         <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(100000,999999)</f>
-        <v>685026</v>
+        <v>138631</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C66" ca="1" si="1">RANDBETWEEN(30,50)</f>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E3"/>
       <c r="F3">
@@ -10463,17 +9603,17 @@
       <c r="BX3"/>
       <c r="BY3"/>
     </row>
-    <row r="4" spans="1:77" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77">
       <c r="A4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>255784</v>
+        <v>319316</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>374</v>
@@ -10595,42 +9735,42 @@
       <c r="BX4"/>
       <c r="BY4"/>
     </row>
-    <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" ht="15" customHeight="1">
       <c r="A5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>660236</v>
+        <v>410564</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:77" ht="15" customHeight="1">
       <c r="A6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>486236</v>
+        <v>964925</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:77" ht="15" customHeight="1">
       <c r="A7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>102193</v>
+        <v>499298</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>62</v>
@@ -10643,154 +9783,154 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:77" ht="15" customHeight="1">
       <c r="A8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>709049</v>
+        <v>752309</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:77" ht="15" customHeight="1">
       <c r="A9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>431468</v>
+        <v>150511</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:77" ht="15" customHeight="1">
       <c r="A10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>387322</v>
+        <v>508377</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:77" ht="15" customHeight="1">
       <c r="A11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>611162</v>
+        <v>595426</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:77" ht="15" customHeight="1">
       <c r="A12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>296170</v>
+        <v>847045</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:77" ht="15" customHeight="1">
       <c r="A13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>727571</v>
+        <v>337753</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:77" ht="15" customHeight="1">
       <c r="A14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>627630</v>
+        <v>569931</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:77" ht="15" customHeight="1">
       <c r="A15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>247179</v>
+        <v>168119</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:77" ht="15" customHeight="1">
       <c r="A16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>631649</v>
+        <v>499205</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>832248</v>
+        <v>582307</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>92</v>
@@ -10803,72 +9943,72 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>111128</v>
+        <v>782524</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>773025</v>
+        <v>889575</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>901529</v>
+        <v>482491</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>703925</v>
+        <v>410483</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
     </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>850212</v>
+        <v>245236</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>107</v>
@@ -10880,520 +10020,520 @@
       <c r="E22"/>
       <c r="F22"/>
     </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>833546</v>
+        <v>731497</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>215548</v>
+        <v>252986</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
     </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>303051</v>
+        <v>684716</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
     </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>988853</v>
+        <v>237562</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>100184</v>
+        <v>305176</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>813937</v>
+        <v>250384</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
     </row>
-    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>607741</v>
+        <v>106300</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>671085</v>
+        <v>591803</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>533788</v>
+        <v>492382</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>215125</v>
+        <v>646628</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>460062</v>
+        <v>424009</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>784326</v>
+        <v>582417</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>696984</v>
+        <v>421154</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>863337</v>
+        <v>746958</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
     </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>433469</v>
+        <v>653362</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>820483</v>
+        <v>969521</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>443746</v>
+        <v>578628</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>481304</v>
+        <v>496375</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>678537</v>
+        <v>141538</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>127967</v>
+        <v>965100</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>676364</v>
+        <v>178807</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C43" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>225474</v>
+        <v>269737</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>173</v>
       </c>
       <c r="C44" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>829656</v>
+        <v>708721</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>927682</v>
+        <v>893148</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>179</v>
       </c>
       <c r="C46" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>309969</v>
+        <v>142285</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>182</v>
       </c>
       <c r="C47" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>123271</v>
+        <v>789941</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>185</v>
       </c>
       <c r="C48" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>296804</v>
+        <v>902927</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C49" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>776160</v>
+        <v>259385</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>179033</v>
+        <v>544917</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>194</v>
       </c>
       <c r="C51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>418802</v>
+        <v>909782</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>197</v>
       </c>
       <c r="C52" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>850482</v>
+        <v>744216</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>200</v>
       </c>
       <c r="C53" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>808097</v>
+        <v>889314</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>203</v>
       </c>
       <c r="C54" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>652419</v>
+        <v>947500</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C55" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>391042</v>
+        <v>576949</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>209</v>
       </c>
       <c r="C56" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>570344</v>
+        <v>824960</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>212</v>
@@ -11405,40 +10545,40 @@
       <c r="E57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>780723</v>
+        <v>982399</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>215</v>
       </c>
       <c r="C58" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>993703</v>
+        <v>597433</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>218</v>
       </c>
       <c r="C59" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>132192</v>
+        <v>702780</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>221</v>
@@ -11450,265 +10590,265 @@
       <c r="E60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>184269</v>
+        <v>591700</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>224</v>
       </c>
       <c r="C61" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>257216</v>
+        <v>671560</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>227</v>
       </c>
       <c r="C62" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>530108</v>
+        <v>999376</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>230</v>
       </c>
       <c r="C63" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>632516</v>
+        <v>616837</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>233</v>
       </c>
       <c r="C64" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>390233</v>
+        <v>117370</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>236</v>
       </c>
       <c r="C65" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>606552</v>
+        <v>577193</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>239</v>
       </c>
       <c r="C66" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
     </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" s="6">
         <f t="shared" ref="A67:A109" ca="1" si="2">RANDBETWEEN(100000,999999)</f>
-        <v>405038</v>
+        <v>210711</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>242</v>
       </c>
       <c r="C67" s="6">
         <f t="shared" ref="C67:C109" ca="1" si="3">RANDBETWEEN(30,50)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
     </row>
-    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>783249</v>
+        <v>468421</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>245</v>
       </c>
       <c r="C68" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
     </row>
-    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>184264</v>
+        <v>119562</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>248</v>
       </c>
       <c r="C69" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>514451</v>
+        <v>855241</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>251</v>
       </c>
       <c r="C70" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>636839</v>
+        <v>401660</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>254</v>
       </c>
       <c r="C71" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>137136</v>
+        <v>530763</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>257</v>
       </c>
       <c r="C72" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>158314</v>
+        <v>244482</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>260</v>
       </c>
       <c r="C73" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>243531</v>
+        <v>284322</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C74" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>950698</v>
+        <v>312226</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>266</v>
       </c>
       <c r="C75" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>388025</v>
+        <v>530352</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>269</v>
       </c>
       <c r="C76" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>405918</v>
+        <v>359099</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>272</v>
       </c>
       <c r="C77" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>150464</v>
+        <v>953821</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>275</v>
@@ -11720,250 +10860,250 @@
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>587327</v>
+        <v>258451</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>278</v>
       </c>
       <c r="C79" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>552427</v>
+        <v>927605</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C80" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>164977</v>
+        <v>205816</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>284</v>
       </c>
       <c r="C81" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>330476</v>
+        <v>787235</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>287</v>
       </c>
       <c r="C82" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
     </row>
-    <row r="83" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>287882</v>
+        <v>177456</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>290</v>
       </c>
       <c r="C83" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
     </row>
-    <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>992950</v>
+        <v>704166</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>293</v>
       </c>
       <c r="C84" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>495729</v>
+        <v>772700</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C85" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>119198</v>
+        <v>829920</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>299</v>
       </c>
       <c r="C86" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
     </row>
-    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>950961</v>
+        <v>202265</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C87" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>804054</v>
+        <v>311411</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>305</v>
       </c>
       <c r="C88" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E88"/>
       <c r="F88"/>
     </row>
-    <row r="89" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>906565</v>
+        <v>710743</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>308</v>
       </c>
       <c r="C89" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>130531</v>
+        <v>751059</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>311</v>
       </c>
       <c r="C90" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E90"/>
       <c r="F90"/>
     </row>
-    <row r="91" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>338583</v>
+        <v>563185</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>314</v>
       </c>
       <c r="C91" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E91"/>
       <c r="F91"/>
     </row>
-    <row r="92" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>715489</v>
+        <v>496497</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>317</v>
       </c>
       <c r="C92" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>413753</v>
+        <v>570738</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>320</v>
       </c>
       <c r="C93" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>108890</v>
+        <v>874250</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>323</v>
       </c>
       <c r="C94" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>352514</v>
+        <v>126015</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>326</v>
@@ -11975,221 +11115,221 @@
       <c r="E95"/>
       <c r="F95"/>
     </row>
-    <row r="96" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>222284</v>
+        <v>905968</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C96" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
     </row>
-    <row r="97" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>558173</v>
+        <v>592821</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>332</v>
       </c>
       <c r="C97" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>865096</v>
+        <v>597172</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>335</v>
       </c>
       <c r="C98" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
     </row>
-    <row r="99" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>280088</v>
+        <v>768047</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>338</v>
       </c>
       <c r="C99" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
     </row>
-    <row r="100" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>867219</v>
+        <v>626541</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>341</v>
       </c>
       <c r="C100" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
     </row>
-    <row r="101" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>100130</v>
+        <v>889000</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>344</v>
       </c>
       <c r="C101" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
     </row>
-    <row r="102" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>896959</v>
+        <v>917740</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>347</v>
       </c>
       <c r="C102" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
     </row>
-    <row r="103" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>148502</v>
+        <v>538958</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>350</v>
       </c>
       <c r="C103" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E103"/>
       <c r="F103"/>
     </row>
-    <row r="104" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>209811</v>
+        <v>570725</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C104" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
     </row>
-    <row r="105" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>322917</v>
+        <v>740779</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>356</v>
       </c>
       <c r="C105" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E105"/>
       <c r="F105"/>
     </row>
-    <row r="106" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>756719</v>
+        <v>486674</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C106" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E106"/>
       <c r="F106"/>
     </row>
-    <row r="107" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>130389</v>
+        <v>751238</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>362</v>
       </c>
       <c r="C107" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E107"/>
       <c r="F107"/>
     </row>
-    <row r="108" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>697946</v>
+        <v>809726</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>365</v>
       </c>
       <c r="C108" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
     </row>
-    <row r="109" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>295447</v>
+        <v>956424</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>368</v>
       </c>
       <c r="C109" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E109"/>
       <c r="F109"/>
     </row>
-    <row r="110" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="E110"/>
       <c r="F110"/>
     </row>
-    <row r="111" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="E111"/>
       <c r="F111"/>
     </row>
